--- a/spliced/falling/2023-03-25_17-58-29/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-29/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1.162086248397827</v>
+        <v>-1.03581714630127</v>
       </c>
       <c r="D2" t="n">
-        <v>1.317891120910645</v>
+        <v>1.381664276123047</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1167446374893195</v>
+        <v>-0.1787742376327515</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0041233403608202</v>
+        <v>0.0007635815418325</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0007635815418325</v>
+        <v>0.01328631862998</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.066737025976181</v>
+        <v>0.0305432621389627</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.455766379833223</v>
+        <v>-1.100839495658875</v>
       </c>
       <c r="D3" t="n">
-        <v>1.126043200492858</v>
+        <v>1.406517148017883</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7863338142633457</v>
+        <v>-0.2175595723092557</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0314595587551593</v>
+        <v>0.0154243474826216</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2884811162948608</v>
+        <v>-0.0059559359215199</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06536258012056349</v>
+        <v>0.0029016099870204</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.653480172157284</v>
+        <v>-1.232075214385986</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8844107389450073</v>
+        <v>1.368059515953064</v>
       </c>
       <c r="E4" t="n">
-        <v>1.495913922786714</v>
+        <v>-0.2088889628648757</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1331686228513717</v>
+        <v>0.0140499006956815</v>
       </c>
       <c r="G4" t="n">
-        <v>0.493731826543808</v>
+        <v>0.0103847095742821</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.1162171140313148</v>
+        <v>0.0612392425537109</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.116286456584938</v>
+        <v>-1.198645412921905</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6627160906791623</v>
+        <v>1.359035015106201</v>
       </c>
       <c r="E5" t="n">
-        <v>2.260028153657919</v>
+        <v>-0.2234921492636203</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.09651670604944219</v>
+        <v>0.0195476878434419</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7289149761199951</v>
+        <v>0.0311541277915239</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0355829000473022</v>
+        <v>0.0459676086902618</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-3.20666265487671</v>
+        <v>-1.162086248397827</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.9849638938903851</v>
+        <v>1.317891120910645</v>
       </c>
       <c r="E6" t="n">
-        <v>3.828832626342773</v>
+        <v>0.1167446374893195</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2052507251501083</v>
+        <v>0.0041233403608202</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5688682794570923</v>
+        <v>-0.0007635815418325</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1585195362567901</v>
+        <v>-0.066737025976181</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-3.492754817008973</v>
+        <v>-1.455766379833223</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.960709273815156</v>
+        <v>1.126043200492858</v>
       </c>
       <c r="E7" t="n">
-        <v>3.70500636100769</v>
+        <v>0.7863338142633457</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.18539759516716</v>
+        <v>-0.0314595587551593</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1214094683527946</v>
+        <v>0.2884811162948608</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.6217080950737</v>
+        <v>0.06536258012056349</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-2.38550305366516</v>
+        <v>-1.653480172157284</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4144415855407741</v>
+        <v>0.8844107389450073</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.4261573851108604</v>
+        <v>1.495913922786714</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8633053302764893</v>
+        <v>-0.1331686228513717</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.9155342578887939</v>
+        <v>0.493731826543808</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0097738439217209</v>
+        <v>-0.1162171140313148</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-2.568133831024171</v>
+        <v>-1.116286456584938</v>
       </c>
       <c r="D9" t="n">
-        <v>3.730020523071294</v>
+        <v>0.6627160906791623</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8093817904591537</v>
+        <v>2.260028153657919</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.978273391723633</v>
+        <v>-0.09651670604944219</v>
       </c>
       <c r="G9" t="n">
-        <v>1.564731359481812</v>
+        <v>0.7289149761199951</v>
       </c>
       <c r="H9" t="n">
-        <v>-3.266449213027954</v>
+        <v>-0.0355829000473022</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-1.976609468460079</v>
+        <v>-3.20666265487671</v>
       </c>
       <c r="D10" t="n">
-        <v>6.545797109603887</v>
+        <v>-0.9849638938903851</v>
       </c>
       <c r="E10" t="n">
-        <v>2.459241539239894</v>
+        <v>3.828832626342773</v>
       </c>
       <c r="F10" t="n">
-        <v>1.346346974372864</v>
+        <v>-0.2052507251501083</v>
       </c>
       <c r="G10" t="n">
-        <v>1.957823157310486</v>
+        <v>0.5688682794570923</v>
       </c>
       <c r="H10" t="n">
-        <v>1.074512004852295</v>
+        <v>0.1585195362567901</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-1.197644114494325</v>
+        <v>-3.492754817008973</v>
       </c>
       <c r="D11" t="n">
-        <v>5.058232277631741</v>
+        <v>-1.960709273815156</v>
       </c>
       <c r="E11" t="n">
-        <v>2.450196892023069</v>
+        <v>3.70500636100769</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2492330223321914</v>
+        <v>-0.18539759516716</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9819658994674684</v>
+        <v>-0.1214094683527946</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.9859365224838256</v>
+        <v>-0.6217080950737</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1.255056142807007</v>
+        <v>-2.38550305366516</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5559926331043243</v>
+        <v>0.4144415855407741</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.602012172341346</v>
+        <v>-0.4261573851108604</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0514653958380222</v>
+        <v>0.8633053302764893</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3197879493236542</v>
+        <v>-0.9155342578887939</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1852448880672454</v>
+        <v>0.0097738439217209</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.5990372896194439</v>
+        <v>-2.568133831024171</v>
       </c>
       <c r="D13" t="n">
-        <v>1.264416024088864</v>
+        <v>3.730020523071294</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3774302378296863</v>
+        <v>-0.8093817904591537</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1069014146924018</v>
+        <v>-2.978273391723633</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1577559560537338</v>
+        <v>1.564731359481812</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1151480972766876</v>
+        <v>-3.266449213027954</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.1129188537597673</v>
+        <v>-1.976609468460079</v>
       </c>
       <c r="D14" t="n">
-        <v>2.17881894111634</v>
+        <v>6.545797109603887</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.6807380914687996</v>
+        <v>2.459241539239894</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7513642311096191</v>
+        <v>1.346346974372864</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.080926060676575</v>
+        <v>1.957823157310486</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.1253800988197326</v>
+        <v>1.074512004852295</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.4983874559402485</v>
+        <v>-1.197644114494325</v>
       </c>
       <c r="D15" t="n">
-        <v>3.747065991163262</v>
+        <v>5.058232277631741</v>
       </c>
       <c r="E15" t="n">
-        <v>1.904177859425558</v>
+        <v>2.450196892023069</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.155312493443489</v>
+        <v>0.2492330223321914</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2770273983478546</v>
+        <v>0.9819658994674684</v>
       </c>
       <c r="H15" t="n">
-        <v>0.052381694316864</v>
+        <v>-0.9859365224838256</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.2239453792572</v>
+        <v>-1.255056142807007</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9145344123244095</v>
+        <v>0.5559926331043243</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.341536760330224</v>
+        <v>-1.602012172341346</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0971275717020034</v>
+        <v>0.0514653958380222</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.6624833345413208</v>
+        <v>-0.3197879493236542</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3292563557624817</v>
+        <v>0.1852448880672454</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0572257041931156</v>
+        <v>-0.5990372896194439</v>
       </c>
       <c r="D17" t="n">
-        <v>1.018226306885483</v>
+        <v>1.264416024088864</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3575173318386149</v>
+        <v>-0.3774302378296863</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0768163055181503</v>
+        <v>0.1069014146924018</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.087353728711605</v>
+        <v>-0.1577559560537338</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009162978967650999</v>
+        <v>0.1151480972766876</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.08431243896484469</v>
+        <v>-0.1129188537597673</v>
       </c>
       <c r="D18" t="n">
-        <v>1.655711889266967</v>
+        <v>2.17881894111634</v>
       </c>
       <c r="E18" t="n">
-        <v>1.111008286476131</v>
+        <v>-0.6807380914687996</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1663080602884292</v>
+        <v>0.7513642311096191</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.113315500319004</v>
+        <v>-1.080926060676575</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0271835029125213</v>
+        <v>-0.1253800988197326</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.4652892351150522</v>
+        <v>-0.4983874559402485</v>
       </c>
       <c r="D19" t="n">
-        <v>1.397481560707091</v>
+        <v>3.747065991163262</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0504151582717907</v>
+        <v>1.904177859425558</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0128281703218817</v>
+        <v>-0.155312493443489</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0352774672210216</v>
+        <v>0.2770273983478546</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0442877300083637</v>
+        <v>0.052381694316864</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.4994766712188698</v>
+        <v>-0.2239453792572</v>
       </c>
       <c r="D20" t="n">
-        <v>1.122801780700685</v>
+        <v>0.9145344123244095</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.2993719577789302</v>
+        <v>-1.341536760330224</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.048105638474226</v>
+        <v>-0.0971275717020034</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1994474977254867</v>
+        <v>-0.6624833345413208</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08918632566928859</v>
+        <v>0.3292563557624817</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.05791747570037777</v>
+        <v>0.0572257041931156</v>
       </c>
       <c r="D21" t="n">
-        <v>1.42728579044342</v>
+        <v>1.018226306885483</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.2159498333930978</v>
+        <v>0.3575173318386149</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0100792767480015</v>
+        <v>-0.0768163055181503</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0337503030896186</v>
+        <v>-0.087353728711605</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.0250454749912023</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.104710578918457</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.550390243530273</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-0.4408519268035888</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.0054977871477603</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.0357356183230876</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.0113010071218013</v>
+        <v>0.0009162978967650999</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-58-29/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-29/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1.03581714630127</v>
+        <v>-0.9284301400184631</v>
       </c>
       <c r="D2" t="n">
-        <v>1.381664276123047</v>
+        <v>1.425136804580689</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1787742376327515</v>
+        <v>-0.2127189040184021</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0007635815418325</v>
+        <v>-0.09926560521125791</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01328631862998</v>
+        <v>-0.0462730415165424</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0305432621389627</v>
+        <v>-0.0271835029125213</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.100839495658875</v>
+        <v>-0.9707106351852418</v>
       </c>
       <c r="D3" t="n">
-        <v>1.406517148017883</v>
+        <v>1.45836865901947</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2175595723092557</v>
+        <v>-0.1764526814222335</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0154243474826216</v>
+        <v>-0.0335975885391235</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0059559359215199</v>
+        <v>-0.0432187169790267</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0029016099870204</v>
+        <v>0.0745255574584007</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.232075214385986</v>
+        <v>-1.115207254886627</v>
       </c>
       <c r="D4" t="n">
-        <v>1.368059515953064</v>
+        <v>1.46594226360321</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2088889628648757</v>
+        <v>-0.1345747746527196</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0140499006956815</v>
+        <v>-0.0479529201984405</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0103847095742821</v>
+        <v>0.0383317954838275</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0612392425537109</v>
+        <v>0.0061086523346602</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.198645412921905</v>
+        <v>-1.505423545837401</v>
       </c>
       <c r="D5" t="n">
-        <v>1.359035015106201</v>
+        <v>1.455123424530029</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2234921492636203</v>
+        <v>-0.2340321838855745</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0195476878434419</v>
+        <v>0.046578474342823</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0311541277915239</v>
+        <v>-0.020616702735424</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0459676086902618</v>
+        <v>0.0142026171088218</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.162086248397827</v>
+        <v>-1.116380929946899</v>
       </c>
       <c r="D6" t="n">
-        <v>1.317891120910645</v>
+        <v>1.48697829246521</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1167446374893195</v>
+        <v>-0.4328413642942907</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0041233403608202</v>
+        <v>-0.0091629782691597</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0007635815418325</v>
+        <v>-0.0673478916287422</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.066737025976181</v>
+        <v>0.0209221355617046</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.455766379833223</v>
+        <v>-1.109515905380249</v>
       </c>
       <c r="D7" t="n">
-        <v>1.126043200492858</v>
+        <v>1.432106614112854</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7863338142633457</v>
+        <v>-0.3912773653864859</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0314595587551593</v>
+        <v>0.0207694191485643</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2884811162948608</v>
+        <v>-0.0343611687421798</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06536258012056349</v>
+        <v>0.0255036242306232</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1.653480172157284</v>
+        <v>-1.141456544399262</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8844107389450073</v>
+        <v>1.384602665901184</v>
       </c>
       <c r="E8" t="n">
-        <v>1.495913922786714</v>
+        <v>-0.2541450988501308</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1331686228513717</v>
+        <v>0.022754730656743</v>
       </c>
       <c r="G8" t="n">
-        <v>0.493731826543808</v>
+        <v>-0.00534507073462</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.1162171140313148</v>
+        <v>0.0320704244077205</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-1.116286456584938</v>
+        <v>-1.13429856300354</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6627160906791623</v>
+        <v>1.39785385131836</v>
       </c>
       <c r="E9" t="n">
-        <v>2.260028153657919</v>
+        <v>-0.2251825407147409</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.09651670604944219</v>
+        <v>0.040775254368782</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7289149761199951</v>
+        <v>0.0120645882561802</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.0355829000473022</v>
+        <v>0.009010262787342</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-3.20666265487671</v>
+        <v>-1.063723325729371</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.9849638938903851</v>
+        <v>1.418689608573914</v>
       </c>
       <c r="E10" t="n">
-        <v>3.828832626342773</v>
+        <v>-0.2562501281499862</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.2052507251501083</v>
+        <v>0.0372627787292003</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5688682794570923</v>
+        <v>-0.0259617734700441</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1585195362567901</v>
+        <v>0.0166460778564214</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-3.492754817008973</v>
+        <v>-1.018438935279846</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.960709273815156</v>
+        <v>1.406062006950379</v>
       </c>
       <c r="E11" t="n">
-        <v>3.70500636100769</v>
+        <v>-0.2269966453313826</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.18539759516716</v>
+        <v>0.011148290708661</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1214094683527946</v>
+        <v>-0.0271835029125213</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.6217080950737</v>
+        <v>0.0561996027827262</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-2.38550305366516</v>
+        <v>-1.137969434261322</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4144415855407741</v>
+        <v>1.409385621547699</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.4261573851108604</v>
+        <v>-0.1802991181612014</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8633053302764893</v>
+        <v>-0.0181732401251792</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.9155342578887939</v>
+        <v>-0.0284052342176437</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0097738439217209</v>
+        <v>-0.011148290708661</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-2.568133831024171</v>
+        <v>-1.03581714630127</v>
       </c>
       <c r="D13" t="n">
-        <v>3.730020523071294</v>
+        <v>1.381664276123047</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.8093817904591537</v>
+        <v>-0.1787742376327515</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.978273391723633</v>
+        <v>0.0007635815418325</v>
       </c>
       <c r="G13" t="n">
-        <v>1.564731359481812</v>
+        <v>0.01328631862998</v>
       </c>
       <c r="H13" t="n">
-        <v>-3.266449213027954</v>
+        <v>0.0305432621389627</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1.976609468460079</v>
+        <v>-1.100839495658875</v>
       </c>
       <c r="D14" t="n">
-        <v>6.545797109603887</v>
+        <v>1.406517148017883</v>
       </c>
       <c r="E14" t="n">
-        <v>2.459241539239894</v>
+        <v>-0.2175595723092557</v>
       </c>
       <c r="F14" t="n">
-        <v>1.346346974372864</v>
+        <v>0.0154243474826216</v>
       </c>
       <c r="G14" t="n">
-        <v>1.957823157310486</v>
+        <v>-0.0059559359215199</v>
       </c>
       <c r="H14" t="n">
-        <v>1.074512004852295</v>
+        <v>0.0029016099870204</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1.197644114494325</v>
+        <v>-1.232075214385986</v>
       </c>
       <c r="D15" t="n">
-        <v>5.058232277631741</v>
+        <v>1.368059515953064</v>
       </c>
       <c r="E15" t="n">
-        <v>2.450196892023069</v>
+        <v>-0.2088889628648757</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2492330223321914</v>
+        <v>0.0140499006956815</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9819658994674684</v>
+        <v>0.0103847095742821</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.9859365224838256</v>
+        <v>0.0612392425537109</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1.255056142807007</v>
+        <v>-1.198645412921905</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5559926331043243</v>
+        <v>1.359035015106201</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.602012172341346</v>
+        <v>-0.2234921492636203</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0514653958380222</v>
+        <v>0.0195476878434419</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.3197879493236542</v>
+        <v>0.0311541277915239</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1852448880672454</v>
+        <v>0.0459676086902618</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.5990372896194439</v>
+        <v>-1.162086248397827</v>
       </c>
       <c r="D17" t="n">
-        <v>1.264416024088864</v>
+        <v>1.317891120910645</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.3774302378296863</v>
+        <v>0.1167446374893195</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1069014146924018</v>
+        <v>0.0041233403608202</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1577559560537338</v>
+        <v>-0.0007635815418325</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1151480972766876</v>
+        <v>-0.066737025976181</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.1129188537597673</v>
+        <v>-1.455766379833223</v>
       </c>
       <c r="D18" t="n">
-        <v>2.17881894111634</v>
+        <v>1.126043200492858</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.6807380914687996</v>
+        <v>0.7863338142633457</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7513642311096191</v>
+        <v>-0.0314595587551593</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.080926060676575</v>
+        <v>0.2884811162948608</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.1253800988197326</v>
+        <v>0.06536258012056349</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.4983874559402485</v>
+        <v>-1.653480172157284</v>
       </c>
       <c r="D19" t="n">
-        <v>3.747065991163262</v>
+        <v>0.8844107389450073</v>
       </c>
       <c r="E19" t="n">
-        <v>1.904177859425558</v>
+        <v>1.495913922786714</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.155312493443489</v>
+        <v>-0.1331686228513717</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2770273983478546</v>
+        <v>0.493731826543808</v>
       </c>
       <c r="H19" t="n">
-        <v>0.052381694316864</v>
+        <v>-0.1162171140313148</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.2239453792572</v>
+        <v>-1.116286456584938</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9145344123244095</v>
+        <v>0.6627160906791623</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.341536760330224</v>
+        <v>2.260028153657919</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0971275717020034</v>
+        <v>-0.09651670604944219</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.6624833345413208</v>
+        <v>0.7289149761199951</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3292563557624817</v>
+        <v>-0.0355829000473022</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0572257041931156</v>
+        <v>-3.20666265487671</v>
       </c>
       <c r="D21" t="n">
-        <v>1.018226306885483</v>
+        <v>-0.9849638938903851</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3575173318386149</v>
+        <v>3.828832626342773</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0768163055181503</v>
+        <v>-0.2052507251501083</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.087353728711605</v>
+        <v>0.5688682794570923</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009162978967650999</v>
+        <v>0.1585195362567901</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-3.492754817008973</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-1.960709273815156</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.70500636100769</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.18539759516716</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.1214094683527946</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.6217080950737</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.38550305366516</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.4144415855407741</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.4261573851108604</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8633053302764893</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.9155342578887939</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0097738439217209</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.568133831024171</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.730020523071294</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.8093817904591537</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-2.978273391723633</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.564731359481812</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-3.266449213027954</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.976609468460079</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6.545797109603887</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.459241539239894</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.346346974372864</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.957823157310486</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.074512004852295</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.197644114494325</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5.058232277631741</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.450196892023069</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.2492330223321914</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9819658994674684</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.9859365224838256</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.255056142807007</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5559926331043243</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-1.602012172341346</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0514653958380222</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.3197879493236542</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1852448880672454</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.5990372896194439</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.264416024088864</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.3774302378296863</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1069014146924018</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.1577559560537338</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.1151480972766876</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.1129188537597673</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.17881894111634</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.6807380914687996</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.7513642311096191</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-1.080926060676575</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.1253800988197326</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.4983874559402485</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.747065991163262</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.904177859425558</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.155312493443489</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.2770273983478546</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.052381694316864</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.2239453792572</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9145344123244095</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1.341536760330224</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.0971275717020034</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.6624833345413208</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.3292563557624817</v>
       </c>
     </row>
   </sheetData>
